--- a/biology/Histoire de la zoologie et de la botanique/Charles-Hélion_de_Barbançois-Villegongis/Charles-Hélion_de_Barbançois-Villegongis.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Charles-Hélion_de_Barbançois-Villegongis/Charles-Hélion_de_Barbançois-Villegongis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Charles-H%C3%A9lion_de_Barban%C3%A7ois-Villegongis</t>
+          <t>Charles-Hélion_de_Barbançois-Villegongis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le marquis Charles-Hélion de Barbançois-Villegongis, né le 17 août 1760 à Villegongis (Indre) et mort le 17 mars 1822, est un agronome français. Il a introduit des béliers mérinos en France et a conçu un nouveau modèle de charrue.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Charles-H%C3%A9lion_de_Barban%C3%A7ois-Villegongis</t>
+          <t>Charles-Hélion_de_Barbançois-Villegongis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après une carrière dans l'infanterie, accaparé par la gestion et l'agrandissement de son domaine, il a été conduit à s'impliquer profondément dans le monde de l'agriculture. En 1801, Président-fondateur de la Société libre d'Agriculture, Commerce et Arts de l'Indre, devenue très vite Société d'agriculture de l'Indre, il s'est révélé un agronome compétent, soucieux de faire progresser les techniques agricoles et d'élever le niveau des connaissances des propriétaires fonciers de son temps, mais aussi de ceux qui cultivaient directement la terre. Il a également été membre de la Société royale d'agriculture de Paris, et associé correspondant des Sociétés d'agriculture de la Seine et de Seine-et-Oise. Il a publié un article[1] présentant une phylogénie des animaux et contenant un des premiers arbres phylogénétiques[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après une carrière dans l'infanterie, accaparé par la gestion et l'agrandissement de son domaine, il a été conduit à s'impliquer profondément dans le monde de l'agriculture. En 1801, Président-fondateur de la Société libre d'Agriculture, Commerce et Arts de l'Indre, devenue très vite Société d'agriculture de l'Indre, il s'est révélé un agronome compétent, soucieux de faire progresser les techniques agricoles et d'élever le niveau des connaissances des propriétaires fonciers de son temps, mais aussi de ceux qui cultivaient directement la terre. Il a également été membre de la Société royale d'agriculture de Paris, et associé correspondant des Sociétés d'agriculture de la Seine et de Seine-et-Oise. Il a publié un article présentant une phylogénie des animaux et contenant un des premiers arbres phylogénétiques.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Charles-H%C3%A9lion_de_Barban%C3%A7ois-Villegongis</t>
+          <t>Charles-Hélion_de_Barbançois-Villegongis</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mémoire sur les moyens d'améliorer les laines et d'augmenter les produits des bêtes à laine dans le département de l'Indre, Châteauroux, 1804 ;
 Le Rêve singulier, ou la Nation comme il n'y en a point, par M. de B. Tome Ier, Paris, 1808, 25 p. ;
